--- a/reklamacje/reklamacje.xlsx
+++ b/reklamacje/reklamacje.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,135 +507,201 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>dee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>11111</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>SP-aa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>2222</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>aaa</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>50577777777</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>123@ss.pl</t>
+          <t>aaaa@wp.pl</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>22222</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>W oczekiwaniu</t>
+          <t>Usunięta</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-03-18 11:50</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr"/>
+          <t>2025-03-18 12:46</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2025-03-20 07:23</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dee</t>
+          <t>Komoda Toronto 3D</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Reklamacja zgłoszona do produkcji 13.03.2025. Uszkodzny dach górny, front lewy.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>11111</t>
+          <t>18960</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SP-aa</t>
+          <t>EL-TOR-KOM-3D-DACH-G-(F18-)-CZ, EL-TOR-KOM-3D-FRO-L-DWAR</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2222</t>
+          <t>6233424046826</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>Paulina</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>Wycichowska</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>50577777777</t>
+          <t>+48608796798</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>aaaa@wp.pl</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>22222</t>
-        </is>
-      </c>
+          <t>3zv6b47v08+51c1eabc7@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-03-20 07:43</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-03-20 07:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Komoda Gabriel 6S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Klientka nie dostała w paczce prawych boczków szuflad.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18812</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6233424064813</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tamara </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Androsiuk</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>+48508027296</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>t.androsiuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
           <t>W oczekiwaniu</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-03-18 12:46</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-03-20 07:47</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reklamacje/reklamacje.xlsx
+++ b/reklamacje/reklamacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,34 +456,34 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Indeksy produktów</t>
+          <t>Imię</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Nazwisko</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Telefon</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Indeksy</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Numery FedEx</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Imię klienta</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Nazwisko klienta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Telefon klienta</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Email klienta</t>
-        </is>
-      </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Notatki</t>
@@ -496,12 +496,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Data utworzenia</t>
+          <t>Zgłoszono</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Data realizacji</t>
+          <t>Zrealizowano</t>
         </is>
       </c>
     </row>
@@ -526,34 +526,34 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>50577777777</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>aaaa@wp.pl</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
           <t>SP-aa</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>2222</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>aa</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>aaa</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>50577777777</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>aaaa@wp.pl</t>
-        </is>
-      </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>22222</t>
@@ -566,12 +566,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2025-03-18 12:46</t>
+          <t>2025-03-18</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-20 07:23</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -596,32 +596,32 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Paulina</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wycichowska</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>+48608796798</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3zv6b47v08+51c1eabc7@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>EL-TOR-KOM-3D-DACH-G-(F18-)-CZ, EL-TOR-KOM-3D-FRO-L-DWAR</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>6233424046826</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Paulina</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Wycichowska</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>+48608796798</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>3zv6b47v08+51c1eabc7@allegromail.pl</t>
         </is>
       </c>
       <c r="K3" t="inlineStr"/>
@@ -632,12 +632,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2025-03-20 07:43</t>
+          <t>2025-03-20</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-20 07:44</t>
+          <t>2025-03-20</t>
         </is>
       </c>
     </row>
@@ -662,46 +662,306 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t xml:space="preserve">Tamara </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Androsiuk</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+48508027296</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>t.androsiuk@gmail.com</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>6233424064813</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tamara </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Androsiuk</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>+48508027296</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>t.androsiuk@gmail.com</t>
         </is>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
-          <t>W oczekiwaniu</t>
+          <t>Zrealizowana</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2025-03-20 07:47</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr"/>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Szafka Nako 3S Biały</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Uszkodzone 2 elementy.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18311</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Kostecka</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+48577849782</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>zn09fg1yop+1efe357e8@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>EL-NAK-3SZ-BOK-P-(F18-)-BI, EL-NAK-3SZ-FRO-SZ-(F33-)-BI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">, </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>LP: 6233419925068, 6233423003608</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Komoda Gabriel 6S</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Klient nie otrzymał 6 boczków szuflady w swojej paczce.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18246</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ola</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Szpatowska</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+48691137854</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>alekssbq@gmail.com</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM, EL-GAB-BOCZ-SZ-P-BISM</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>6233419673396</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Komoda Gabriel 6S</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Uszkodzony Lewy front szuflady.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17873</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anna </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gajko</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+48696831228</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ania23923@gmail.com</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>EL-GAB-6S-FRONT-SZ-L-BISM</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Szafka Nako 3S Biały</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Uszkodzone 2 elementy</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18800</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Svitlana </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Zdybel</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+48888036037</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>5a8tg46sy3+717cd2316@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>EL-NAK-3SZ-BOK-L-(F18-)-BI, EL-NAK-3SZ-BOK-P-(F18-)-BI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>W trakcie</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/reklamacje/reklamacje.xlsx
+++ b/reklamacje/reklamacje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -949,19 +949,147 @@
           <t>EL-NAK-3SZ-BOK-L-(F18-)-BI, EL-NAK-3SZ-BOK-P-(F18-)-BI</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>6233424802248</t>
+        </is>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Biurko narożne Slash - Biały</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Kurier odmówił dostarczenia przesyłki, uszkodzona paczka.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19090</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dorota </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Galinska</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+48726741823</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6wowjgbpc5+410544ae8@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Protokój ustalenia stanu przesyłki</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
           <t>W trakcie</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Biurko narożne Slash - Beton Chicago jasnoszary</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Klient nie odebrał przesyłki. </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18936</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mateusz </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Rakowski</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+48530394943</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1vbecjqnsb+27d32f7e1@allegromail.pl</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Wysłane ponownie, klient odebrał przesyłke.</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Zrealizowana</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
